--- a/biology/Médecine/Pierre_Demours/Pierre_Demours.xlsx
+++ b/biology/Médecine/Pierre_Demours/Pierre_Demours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Demours, né en 1702 à Marseille et mort en 1795[1], est un oculiste, traducteur et zoologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Demours, né en 1702 à Marseille et mort en 1795, est un oculiste, traducteur et zoologiste français.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Demours est le fils d'un pharmacien de Marseille[2]. On ne doit pas le confondre avec son fils, Antoine Pierre Demours, qui a également laissé son nom en médecine oculaire[3] et dont l’œuvre reconnaît celle de son père[4].
-Il étudie la médecine à Avignon puis à Paris, où il devient licencié. C'est à Avignon qu'il obtient son doctorat en médecine. Il retourne se perfectionner à Paris, où Duverney le prend comme assistant. À la mort de Duverney en 1730 il est choisi par Pierre Chirac pour lui succéder comme démonstrateur au Jardin du Roi. Mais quand Chirac meurt, on renverse beaucoup de ses attributions de poste[5], dont celle de Demours. Il songe à retourner à Avignon ; Antoine Petit le choisit alors comme assistant[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Demours est le fils d'un pharmacien de Marseille. On ne doit pas le confondre avec son fils, Antoine Pierre Demours, qui a également laissé son nom en médecine oculaire et dont l’œuvre reconnaît celle de son père.
+Il étudie la médecine à Avignon puis à Paris, où il devient licencié. C'est à Avignon qu'il obtient son doctorat en médecine. Il retourne se perfectionner à Paris, où Duverney le prend comme assistant. À la mort de Duverney en 1730 il est choisi par Pierre Chirac pour lui succéder comme démonstrateur au Jardin du Roi. Mais quand Chirac meurt, on renverse beaucoup de ses attributions de poste, dont celle de Demours. Il songe à retourner à Avignon ; Antoine Petit le choisit alors comme assistant.
 Petit lui conseille de se consacrer au traitement des maladies des yeux, ce qui est déjà un centre d'intérêt pour Demours. Il y obtient bientôt un grand succès et enrichit de plusieurs découvertes la chirurgie oculaire.
 En zoologie Demours est le premier à décrire et expliquer le mode de reproduction particulier du crapaud alyte accoucheur (Alytes obstetricans). Toutefois il ne vainc pas le scepticisme de ses contemporains et ce n'est qu'en 1872 qu'Arthur de l'Isle du Dréneuf fait revivre ses observations.
 On lui doit de nombreuses traductions de l'anglais vers le français.
-Demours meurt en 1795. Il était associé vétéran de l'Académie des sciences depuis 1769[7], membre de la Royal Society, oculiste du roi et garde du cabinet d'histoire naturelle du Jardin du Roi[8].
+Demours meurt en 1795. Il était associé vétéran de l'Académie des sciences depuis 1769, membre de la Royal Society, oculiste du roi et garde du cabinet d'histoire naturelle du Jardin du Roi.
 </t>
         </is>
       </c>
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
